--- a/biology/Botanique/Liste_des_espèces_végétales_menacées_ou_vulnérables_au_Québec/Liste_des_espèces_végétales_menacées_ou_vulnérables_au_Québec.xlsx
+++ b/biology/Botanique/Liste_des_espèces_végétales_menacées_ou_vulnérables_au_Québec/Liste_des_espèces_végétales_menacées_ou_vulnérables_au_Québec.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_menac%C3%A9es_ou_vuln%C3%A9rables_au_Qu%C3%A9bec</t>
+          <t>Liste_des_espèces_végétales_menacées_ou_vulnérables_au_Québec</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">314 plantes vasculaires et 191 plantes invasculaires (bryophytes) sont considérées comme étant susceptibles d'être désignées menacées ou vulnérables.
 78 espèces de la flore ont été légalement désignées menacées ou vulnérables au Québec:
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_menac%C3%A9es_ou_vuln%C3%A9rables_au_Qu%C3%A9bec</t>
+          <t>Liste_des_espèces_végétales_menacées_ou_vulnérables_au_Québec</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Espèces floristiques menacées (57)</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Aplectrelle d’hiver, Aplectrum hyemale
 Arabette du Québec, Boechera quebecensis
@@ -580,7 +594,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_menac%C3%A9es_ou_vuln%C3%A9rables_au_Qu%C3%A9bec</t>
+          <t>Liste_des_espèces_végétales_menacées_ou_vulnérables_au_Québec</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -598,7 +612,9 @@
           <t>Espèces floristiques vulnérables (12)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ail des bois, Allium tricoccum
 Arnica à aigrette brune, Arnica lanceolata subsp. lanceolata
@@ -621,7 +637,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_menac%C3%A9es_ou_vuln%C3%A9rables_au_Qu%C3%A9bec</t>
+          <t>Liste_des_espèces_végétales_menacées_ou_vulnérables_au_Québec</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -639,7 +655,9 @@
           <t>Espèces floristiques vulnérables à la récolte (9)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Adiante du Canada, Adiantum pedatum
 Asaret du Canada, Asarum canadense
